--- a/classifier/data/classifier_files/train_label.xlsx
+++ b/classifier/data/classifier_files/train_label.xlsx
@@ -14,12 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="2">
+  <si>
+    <t>negative</t>
+  </si>
   <si>
     <t>positive</t>
-  </si>
-  <si>
-    <t>negative</t>
   </si>
 </sst>
 </file>
@@ -377,7 +377,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A401"/>
+  <dimension ref="A1:A418"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -405,17 +405,17 @@
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:1">
@@ -440,12 +440,12 @@
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:1">
@@ -455,7 +455,7 @@
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:1">
@@ -465,12 +465,12 @@
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:1">
@@ -480,17 +480,17 @@
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:1">
@@ -510,37 +510,37 @@
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:1">
@@ -550,7 +550,7 @@
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:1">
@@ -570,7 +570,7 @@
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:1">
@@ -595,12 +595,12 @@
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:1">
@@ -620,27 +620,27 @@
     </row>
     <row r="48" spans="1:1">
       <c r="A48" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:1">
@@ -650,7 +650,7 @@
     </row>
     <row r="54" spans="1:1">
       <c r="A54" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:1">
@@ -660,7 +660,7 @@
     </row>
     <row r="56" spans="1:1">
       <c r="A56" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:1">
@@ -670,22 +670,22 @@
     </row>
     <row r="58" spans="1:1">
       <c r="A58" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:1">
@@ -695,12 +695,12 @@
     </row>
     <row r="63" spans="1:1">
       <c r="A63" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:1">
@@ -720,7 +720,7 @@
     </row>
     <row r="68" spans="1:1">
       <c r="A68" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:1">
@@ -730,12 +730,12 @@
     </row>
     <row r="70" spans="1:1">
       <c r="A70" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:1">
@@ -750,22 +750,22 @@
     </row>
     <row r="74" spans="1:1">
       <c r="A74" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:1">
@@ -780,22 +780,22 @@
     </row>
     <row r="80" spans="1:1">
       <c r="A80" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:1">
@@ -820,22 +820,22 @@
     </row>
     <row r="88" spans="1:1">
       <c r="A88" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:1">
@@ -845,12 +845,12 @@
     </row>
     <row r="93" spans="1:1">
       <c r="A93" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:1">
@@ -885,32 +885,32 @@
     </row>
     <row r="101" spans="1:1">
       <c r="A101" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:1">
@@ -920,12 +920,12 @@
     </row>
     <row r="108" spans="1:1">
       <c r="A108" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:1">
@@ -935,47 +935,47 @@
     </row>
     <row r="111" spans="1:1">
       <c r="A111" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:1">
@@ -1000,7 +1000,7 @@
     </row>
     <row r="124" spans="1:1">
       <c r="A124" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:1">
@@ -1010,7 +1010,7 @@
     </row>
     <row r="126" spans="1:1">
       <c r="A126" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:1">
@@ -1020,12 +1020,12 @@
     </row>
     <row r="128" spans="1:1">
       <c r="A128" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:1">
@@ -1045,12 +1045,12 @@
     </row>
     <row r="133" spans="1:1">
       <c r="A133" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:1">
@@ -1070,7 +1070,7 @@
     </row>
     <row r="138" spans="1:1">
       <c r="A138" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:1">
@@ -1090,17 +1090,17 @@
     </row>
     <row r="142" spans="1:1">
       <c r="A142" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:1">
       <c r="A143" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:1">
       <c r="A144" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:1">
@@ -1110,7 +1110,7 @@
     </row>
     <row r="146" spans="1:1">
       <c r="A146" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:1">
@@ -1135,17 +1135,17 @@
     </row>
     <row r="151" spans="1:1">
       <c r="A151" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:1">
       <c r="A152" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:1">
       <c r="A153" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:1">
@@ -1155,7 +1155,7 @@
     </row>
     <row r="155" spans="1:1">
       <c r="A155" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:1">
@@ -1165,22 +1165,22 @@
     </row>
     <row r="157" spans="1:1">
       <c r="A157" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:1">
       <c r="A158" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:1">
       <c r="A159" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:1">
       <c r="A160" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161" spans="1:1">
@@ -1195,7 +1195,7 @@
     </row>
     <row r="163" spans="1:1">
       <c r="A163" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164" spans="1:1">
@@ -1205,7 +1205,7 @@
     </row>
     <row r="165" spans="1:1">
       <c r="A165" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166" spans="1:1">
@@ -1215,12 +1215,12 @@
     </row>
     <row r="167" spans="1:1">
       <c r="A167" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168" spans="1:1">
       <c r="A168" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169" spans="1:1">
@@ -1230,7 +1230,7 @@
     </row>
     <row r="170" spans="1:1">
       <c r="A170" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171" spans="1:1">
@@ -1245,7 +1245,7 @@
     </row>
     <row r="173" spans="1:1">
       <c r="A173" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174" spans="1:1">
@@ -1255,7 +1255,7 @@
     </row>
     <row r="175" spans="1:1">
       <c r="A175" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176" spans="1:1">
@@ -1265,27 +1265,27 @@
     </row>
     <row r="177" spans="1:1">
       <c r="A177" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178" spans="1:1">
       <c r="A178" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179" spans="1:1">
       <c r="A179" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180" spans="1:1">
       <c r="A180" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181" spans="1:1">
       <c r="A181" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182" spans="1:1">
@@ -1295,7 +1295,7 @@
     </row>
     <row r="183" spans="1:1">
       <c r="A183" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184" spans="1:1">
@@ -1305,7 +1305,7 @@
     </row>
     <row r="185" spans="1:1">
       <c r="A185" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186" spans="1:1">
@@ -1320,17 +1320,17 @@
     </row>
     <row r="188" spans="1:1">
       <c r="A188" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189" spans="1:1">
       <c r="A189" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190" spans="1:1">
       <c r="A190" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191" spans="1:1">
@@ -1345,7 +1345,7 @@
     </row>
     <row r="193" spans="1:1">
       <c r="A193" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194" spans="1:1">
@@ -1355,7 +1355,7 @@
     </row>
     <row r="195" spans="1:1">
       <c r="A195" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196" spans="1:1">
@@ -1375,37 +1375,37 @@
     </row>
     <row r="199" spans="1:1">
       <c r="A199" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200" spans="1:1">
       <c r="A200" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201" spans="1:1">
       <c r="A201" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202" spans="1:1">
       <c r="A202" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203" spans="1:1">
       <c r="A203" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204" spans="1:1">
       <c r="A204" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="205" spans="1:1">
       <c r="A205" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="206" spans="1:1">
@@ -1435,7 +1435,7 @@
     </row>
     <row r="211" spans="1:1">
       <c r="A211" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="212" spans="1:1">
@@ -1460,12 +1460,12 @@
     </row>
     <row r="216" spans="1:1">
       <c r="A216" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217" spans="1:1">
       <c r="A217" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218" spans="1:1">
@@ -1490,12 +1490,12 @@
     </row>
     <row r="222" spans="1:1">
       <c r="A222" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="223" spans="1:1">
       <c r="A223" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="224" spans="1:1">
@@ -1510,7 +1510,7 @@
     </row>
     <row r="226" spans="1:1">
       <c r="A226" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="227" spans="1:1">
@@ -1525,7 +1525,7 @@
     </row>
     <row r="229" spans="1:1">
       <c r="A229" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="230" spans="1:1">
@@ -1535,17 +1535,17 @@
     </row>
     <row r="231" spans="1:1">
       <c r="A231" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="232" spans="1:1">
       <c r="A232" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:1">
       <c r="A233" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="234" spans="1:1">
@@ -1555,12 +1555,12 @@
     </row>
     <row r="235" spans="1:1">
       <c r="A235" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="236" spans="1:1">
       <c r="A236" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="237" spans="1:1">
@@ -1575,7 +1575,7 @@
     </row>
     <row r="239" spans="1:1">
       <c r="A239" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="240" spans="1:1">
@@ -1585,7 +1585,7 @@
     </row>
     <row r="241" spans="1:1">
       <c r="A241" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="242" spans="1:1">
@@ -1600,12 +1600,12 @@
     </row>
     <row r="244" spans="1:1">
       <c r="A244" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="245" spans="1:1">
       <c r="A245" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="246" spans="1:1">
@@ -1615,7 +1615,7 @@
     </row>
     <row r="247" spans="1:1">
       <c r="A247" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="248" spans="1:1">
@@ -1635,7 +1635,7 @@
     </row>
     <row r="251" spans="1:1">
       <c r="A251" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="252" spans="1:1">
@@ -1645,17 +1645,17 @@
     </row>
     <row r="253" spans="1:1">
       <c r="A253" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="254" spans="1:1">
       <c r="A254" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:1">
       <c r="A255" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="256" spans="1:1">
@@ -1670,12 +1670,12 @@
     </row>
     <row r="258" spans="1:1">
       <c r="A258" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="259" spans="1:1">
       <c r="A259" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="260" spans="1:1">
@@ -1685,17 +1685,17 @@
     </row>
     <row r="261" spans="1:1">
       <c r="A261" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="262" spans="1:1">
       <c r="A262" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="263" spans="1:1">
       <c r="A263" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="264" spans="1:1">
@@ -1710,12 +1710,12 @@
     </row>
     <row r="266" spans="1:1">
       <c r="A266" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="267" spans="1:1">
       <c r="A267" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="268" spans="1:1">
@@ -1725,12 +1725,12 @@
     </row>
     <row r="269" spans="1:1">
       <c r="A269" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="270" spans="1:1">
       <c r="A270" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="271" spans="1:1">
@@ -1745,12 +1745,12 @@
     </row>
     <row r="273" spans="1:1">
       <c r="A273" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:1">
       <c r="A274" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:1">
@@ -1770,7 +1770,7 @@
     </row>
     <row r="278" spans="1:1">
       <c r="A278" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:1">
@@ -1785,17 +1785,17 @@
     </row>
     <row r="281" spans="1:1">
       <c r="A281" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282" spans="1:1">
       <c r="A282" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283" spans="1:1">
       <c r="A283" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:1">
@@ -1805,7 +1805,7 @@
     </row>
     <row r="285" spans="1:1">
       <c r="A285" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:1">
@@ -1815,12 +1815,12 @@
     </row>
     <row r="287" spans="1:1">
       <c r="A287" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:1">
       <c r="A288" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:1">
@@ -1830,22 +1830,22 @@
     </row>
     <row r="290" spans="1:1">
       <c r="A290" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:1">
       <c r="A291" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292" spans="1:1">
       <c r="A292" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:1">
       <c r="A293" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:1">
@@ -1855,17 +1855,17 @@
     </row>
     <row r="295" spans="1:1">
       <c r="A295" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:1">
       <c r="A296" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:1">
       <c r="A297" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:1">
@@ -1885,17 +1885,17 @@
     </row>
     <row r="301" spans="1:1">
       <c r="A301" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:1">
       <c r="A302" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:1">
       <c r="A303" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:1">
@@ -1905,12 +1905,12 @@
     </row>
     <row r="305" spans="1:1">
       <c r="A305" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306" spans="1:1">
       <c r="A306" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307" spans="1:1">
@@ -1925,7 +1925,7 @@
     </row>
     <row r="309" spans="1:1">
       <c r="A309" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310" spans="1:1">
@@ -1935,12 +1935,12 @@
     </row>
     <row r="311" spans="1:1">
       <c r="A311" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312" spans="1:1">
       <c r="A312" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313" spans="1:1">
@@ -1955,7 +1955,7 @@
     </row>
     <row r="315" spans="1:1">
       <c r="A315" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316" spans="1:1">
@@ -1965,12 +1965,12 @@
     </row>
     <row r="317" spans="1:1">
       <c r="A317" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="318" spans="1:1">
       <c r="A318" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319" spans="1:1">
@@ -1980,17 +1980,17 @@
     </row>
     <row r="320" spans="1:1">
       <c r="A320" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321" spans="1:1">
       <c r="A321" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322" spans="1:1">
       <c r="A322" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="323" spans="1:1">
@@ -2010,12 +2010,12 @@
     </row>
     <row r="326" spans="1:1">
       <c r="A326" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327" spans="1:1">
       <c r="A327" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328" spans="1:1">
@@ -2030,17 +2030,17 @@
     </row>
     <row r="330" spans="1:1">
       <c r="A330" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331" spans="1:1">
       <c r="A331" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332" spans="1:1">
       <c r="A332" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="333" spans="1:1">
@@ -2055,7 +2055,7 @@
     </row>
     <row r="335" spans="1:1">
       <c r="A335" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336" spans="1:1">
@@ -2070,12 +2070,12 @@
     </row>
     <row r="338" spans="1:1">
       <c r="A338" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="339" spans="1:1">
       <c r="A339" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="340" spans="1:1">
@@ -2095,12 +2095,12 @@
     </row>
     <row r="343" spans="1:1">
       <c r="A343" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="344" spans="1:1">
       <c r="A344" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="345" spans="1:1">
@@ -2110,7 +2110,7 @@
     </row>
     <row r="346" spans="1:1">
       <c r="A346" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="347" spans="1:1">
@@ -2125,22 +2125,22 @@
     </row>
     <row r="349" spans="1:1">
       <c r="A349" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="350" spans="1:1">
       <c r="A350" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="351" spans="1:1">
       <c r="A351" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="352" spans="1:1">
       <c r="A352" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="353" spans="1:1">
@@ -2155,7 +2155,7 @@
     </row>
     <row r="355" spans="1:1">
       <c r="A355" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="356" spans="1:1">
@@ -2175,22 +2175,22 @@
     </row>
     <row r="359" spans="1:1">
       <c r="A359" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="360" spans="1:1">
       <c r="A360" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="361" spans="1:1">
       <c r="A361" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="362" spans="1:1">
       <c r="A362" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="363" spans="1:1">
@@ -2200,7 +2200,7 @@
     </row>
     <row r="364" spans="1:1">
       <c r="A364" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="365" spans="1:1">
@@ -2225,7 +2225,7 @@
     </row>
     <row r="369" spans="1:1">
       <c r="A369" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="370" spans="1:1">
@@ -2235,7 +2235,7 @@
     </row>
     <row r="371" spans="1:1">
       <c r="A371" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="372" spans="1:1">
@@ -2245,12 +2245,12 @@
     </row>
     <row r="373" spans="1:1">
       <c r="A373" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="374" spans="1:1">
       <c r="A374" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="375" spans="1:1">
@@ -2260,12 +2260,12 @@
     </row>
     <row r="376" spans="1:1">
       <c r="A376" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="377" spans="1:1">
       <c r="A377" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="378" spans="1:1">
@@ -2275,7 +2275,7 @@
     </row>
     <row r="379" spans="1:1">
       <c r="A379" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380" spans="1:1">
@@ -2290,7 +2290,7 @@
     </row>
     <row r="382" spans="1:1">
       <c r="A382" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="383" spans="1:1">
@@ -2305,12 +2305,12 @@
     </row>
     <row r="385" spans="1:1">
       <c r="A385" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="386" spans="1:1">
       <c r="A386" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="387" spans="1:1">
@@ -2320,12 +2320,12 @@
     </row>
     <row r="388" spans="1:1">
       <c r="A388" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="389" spans="1:1">
       <c r="A389" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="390" spans="1:1">
@@ -2360,7 +2360,7 @@
     </row>
     <row r="396" spans="1:1">
       <c r="A396" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="397" spans="1:1">
@@ -2370,7 +2370,7 @@
     </row>
     <row r="398" spans="1:1">
       <c r="A398" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="399" spans="1:1">
@@ -2380,12 +2380,97 @@
     </row>
     <row r="400" spans="1:1">
       <c r="A400" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="401" spans="1:1">
       <c r="A401" t="s">
-        <v>1</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="402" spans="1:1">
+      <c r="A402" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="403" spans="1:1">
+      <c r="A403" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="404" spans="1:1">
+      <c r="A404" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="405" spans="1:1">
+      <c r="A405" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="406" spans="1:1">
+      <c r="A406" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="407" spans="1:1">
+      <c r="A407" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="408" spans="1:1">
+      <c r="A408" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="409" spans="1:1">
+      <c r="A409" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="410" spans="1:1">
+      <c r="A410" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="411" spans="1:1">
+      <c r="A411" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="412" spans="1:1">
+      <c r="A412" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="413" spans="1:1">
+      <c r="A413" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="414" spans="1:1">
+      <c r="A414" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="415" spans="1:1">
+      <c r="A415" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="416" spans="1:1">
+      <c r="A416" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="417" spans="1:1">
+      <c r="A417" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="418" spans="1:1">
+      <c r="A418" t="s">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/classifier/data/classifier_files/train_label.xlsx
+++ b/classifier/data/classifier_files/train_label.xlsx
@@ -870,7 +870,7 @@
     </row>
     <row r="98" spans="1:1">
       <c r="A98" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:1">
